--- a/Dataset/Folds/Fold_1/Excel/35.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/35.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7309" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8173" uniqueCount="1193">
   <si>
     <t>Doi</t>
   </si>
@@ -3785,6 +3785,410 @@
   </si>
   <si>
     <t>[Cao%Y%coreGivesNoEmail%0,                          Imam%Z%coreGivesNoEmail%1,                          Lippi%G%coreGivesNoEmail%1,                          Oran%DP%coreGivesNoEmail%1,                          Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%2,                            Miao%Yu%NULL%2,                            Tian%Xie%NULL%2,                            Fen%Yang%NULL%2,                            Hong-Bo%Wang%NULL%2,                            Zhao-Hui%Wang%NULL%2,                            Ming%Li%NULL%4,                            Xing-Li%Gao%NULL%2,                            Bing-Jie%Lv%NULL%2,                            Shi-Jia%Wang%NULL%2,                            Xiao-Bo%Zhang%NULL%2,                            Shao-Lin%He%NULL%2,                            Zhi-Hua%Qiu%NULL%2,                            Yu-Hua%Liao%NULL%2,                            Zi-Hua%Zhou%NULL%2,                            Xiang%Cheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                            Simon A%Jones%NULL%3,                            Jie%Yang%NULL%5,                            Harish%Rajagopalan%NULL%3,                            Luke%O’Donnell%NULL%3,                            Yelena%Chernyak%NULL%3,                            Katie A%Tobin%NULL%3,                            Robert J%Cerfolio%NULL%3,                            Fritz%Francois%NULL%3,                            Leora I%Horwitz%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%0,                            Jeffrey%Burton%NULL%2,                            Jeffrey%Burton%NULL%0,                            Daniel%Fort%NULL%1,                            Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohamad%Raad%NULL%1,                            Mohammed%Dabbagh%NULL%1,                            Sarah%Gorgis%NULL%1,                            Jerry%Yan%NULL%1,                            Omar%Chehab%NULL%1,                            Carina%Dagher%NULL%2,                            Khaled%Jamoor%NULL%1,                            Inaya Hajj%Hussein%NULL%1,                            Bernard%Cook%NULL%1,                            Meredith%Van Harn%NULL%1,                            Gurjit%Singh%NULL%1,                            James%McCord%NULL%1,                            Sachin%Parikh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%NULL%0,                            Rajkumar%Doshi%NULL%1,                            Avantika%Chenna%NULL%1,                            Robin%Owens%NULL%1,                            Abigail%Cobb%NULL%1,                            Holley%Ivey%NULL%1,                            Sarah%Newton%NULL%1,                            Kelly%Mccarley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sachin J.%Shah%sachin.shah@ucsf.edu%1,                            Peter N.%Barish%NULL%1,                            Priya A.%Prasad%NULL%1,                            Amy%Kistler%NULL%1,                            Norma%Neff%NULL%1,                            Jack%Kamm%NULL%1,                            Lucy M.%Li%NULL%1,                            Charles Y.%Chiu%NULL%1,                            Jennifer M.%Babik%NULL%1,                            Margaret C.%Fang%NULL%1,                            Yumiko%Abe-Jones%NULL%1,                            Narges%Alipanah%NULL%1,                            Francisco N.%Alvarez%NULL%1,                            Olga Borisovna%Botvinnik%NULL%1,                            Gloria%Castaneda%NULL%1,                            NULL%NULL%NULL%0,                            Rand M.%Dadasovich%NULL%1,                            Jennifer%Davis%NULL%1,                            Xianding%Deng%NULL%1,                            Joseph L.%DeRisi%NULL%1,                            Angela M.%Detweiler%NULL%1,                            Scot%Federman%NULL%1,                            John%Haliburton%NULL%1,                            Samantha%Hao%NULL%1,                            Andrew D.%Kerkhoff%NULL%1,                            G. Renuka%Kumar%NULL%1,                            Katherine B.%Malcolm%NULL%1,                            Sabrina A.%Mann%NULL%1,                            Sandra%Martinez%NULL%1,                            Rupa K.%Mary%NULL%1,                            Eran%Mick%NULL%1,                            Lusajo%Mwakibete%NULL%1,                            Nader%Najafi%NULL%1,                            Michael J.%Peluso%NULL%1,                            Maira%Phelps%NULL%1,                            Angela Oliveira%Pisco%NULL%1,                            Kalani%Ratnasiri%NULL%1,                            Luis A.%Rubio%NULL%1,                            Anna%Sellas%NULL%1,                            Kyla D.%Sherwood%NULL%1,                            Jonathan%Sheu%NULL%1,                            Natasha%Spottiswoode%NULL%1,                            Michelle%Tan%NULL%1,                            Guixia%Yu%NULL%1,                            Kirsten Neudoerffer%Kangelaris%NULL%1,                            Charles%Langelier%chaz.langelier@ucsf.edu%1]</t>
+  </si>
+  <si>
+    <t>[Yinzhong%Shen%NULL%0,                            Fang%Zheng%NULL%3,                            Fang%Zheng%NULL%0,                            Danfeng%Sun%NULL%1,                            Yun%Ling%NULL%3,                            Jun%Chen%NULL%4,                            Feng%Li%NULL%3,                            Feng%Li%NULL%0,                            Tao%Li%NULL%0,                            Zhiping%Qian%NULL%1,                            Yuyi%Zhang%NULL%1,                            Qingnian%Xu%NULL%1,                            Li%Liu%NULL%0,                            Qin%Huang%NULL%1,                            Fei%Shan%NULL%1,                            Lie%Xu%NULL%1,                            Jun%Wu%NULL%1,                            Zhaoqin%Zhu%NULL%1,                            Zhigang%Song%NULL%1,                            Shenyang%Li%NULL%1,                            Yuxin%Shi%NULL%1,                            Jianliang%Zhang%NULL%1,                            Xueyun%Wu%NULL%1,                            Joshua B.%Mendelsohn%NULL%2,                            Joshua B.%Mendelsohn%NULL%0,                            Tongyu%Zhu%NULL%1,                            Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[F. M. A.%van den Heuvel%NULL%1,                            J. L.%Vos%NULL%1,                            Y.%Koop%NULL%1,                            A. P. J.%van Dijk%NULL%1,                            A. L.%Duijnhouwer%NULL%1,                            Q.%de Mast%NULL%1,                            F. L.%van de Veerdonk%NULL%1,                            F.%Bosch%NULL%1,                            B.%Kok%NULL%1,                            M. G.%Netea%NULL%1,                            J.%Hoogerwerf%NULL%1,                            W.%Hoefsloot%NULL%1,                            E. T. T. L.%Tjwa%NULL%1,                            C. L.%de Korte%NULL%1,                            R. R. J.%van Kimmenade%NULL%1,                            R.%Nijveldt%robin@nijveldt.net%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%2,                            Fang-Yang%Huang%NULL%2,                            Tian-Yuan%Xiong%NULL%4,                            Tian-Yuan%Xiong%NULL%0,                            Qi%Liu%NULL%2,                            Hong%Chen%NULL%3,                            Hui%Wang%NULL%0,                            He%Huang%NULL%3,                            Yi-Chun%Luo%NULL%2,                            Xuan%Zhou%NULL%2,                            Zhi-Yue%Liu%NULL%2,                            Yong%Peng%NULL%2,                            Yuan-Ning%Xu%NULL%2,                            Bo%Wang%NULL%0,                            Ying-Ying%Yang%NULL%2,                            Zong-An%Liang%NULL%3,                            Xue-Zhong%Lei%NULL%2,                            Yang%Ge%NULL%2,                            Ming%Yang%NULL%3,                            Ling%Zhang%NULL%0,                            Ming-Quan%Zeng%NULL%2,                            He%Yu%NULL%2,                            Kai%Liu%NULL%2,                            Yu-Heng%Jia%NULL%2,                            Bernard D%Prendergast%NULL%2,                            Wei-Min%Li%NULL%5,                            Wei-Min%Li%NULL%0,                            Mao%Chen%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%4,                            Dan%Xu%NULL%5,                            Shouzhi%Fu%NULL%5,                            Jun%Zhang%NULL%4,                            Xiaobo%Yang%NULL%4,                            Liang%Xu%NULL%4,                            Jiqian%Xu%NULL%9,                            Yongran%Wu%NULL%9,                            Chaolin%Huang%NULL%4,                            Yaqi%Ouyang%NULL%4,                            Luyu%Yang%NULL%4,                            Minghao%Fang%NULL%11,                            Hongwen%Xiao%NULL%4,                            Jing%Ma%NULL%4,                            Wei%Zhu%NULL%0,                            Song%Hu%NULL%4,                            Quan%Hu%NULL%4,                            Daoyin%Ding%NULL%4,                            Ming%Hu%NULL%8,                            Guochao%Zhu%NULL%4,                            Weijiang%Xu%NULL%4,                            Jun%Guo%NULL%4,                            Jinglong%Xu%NULL%4,                            Haitao%Yuan%NULL%4,                            Bin%Zhang%NULL%5,                            Zhui%Yu%yuzhui@whu.edu.cn%9,                            Dechang%Chen%icudechangchen@163.com%4,                            Shiying%Yuan%yuan_shiying@163.com%9,                            You%Shang%you_shanghust@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Jia-Hui%Zeng%zengjiahui1993@163.com%1,                            Wei-Bo%Wu%13923451469@139.com%2,                            Wei-Bo%Wu%13923451469@139.com%0,                            Jiu-Xin%Qu%qujiuxin@163.com%1,                            Yao%Wang%68848030@qq.com%1,                            Chang-Feng%Dong%dongchangfeng7@163.com%1,                            Yong-Fang%Luo%luoyongfang2005@foxmail.com%1,                            Dan%Zhou%506057507@qq.com%1,                            Wen-Xia%Feng%1484177993@qq.com%1,                            Cheng%Feng%chaosheng-01@szsy.sustech.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xin-Ying%Zhao%NULL%1,                            Xuan-Xuan%Xu%NULL%1,                            Hai-Sen%Yin%NULL%1,                            Qin-Ming%Hu%NULL%1,                            Tao%Xiong%NULL%1,                            Yuan-Yan%Tang%NULL%1,                            Ai-Ying%Yang%NULL%1,                            Bao-Ping%Yu%yubp62@163.com%1,                            Zhi-Ping%Huang%huangzhipingdoctor@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%0,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%0,                            Jie%Xiang%NULL%0,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%0,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%0,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%0,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%0,                            Yi%Zhang%NULL%0,                            Hua%Chen%NULL%0,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aquino Bruno%Heberto%NULL%1,                            Plata Corona Juan%Carlos%vic_plata@hotmail.com%1,                            Castro Rubio José%Antonio%NULL%1,                            Pulido Pérez%Patricia%NULL%1,                            Torres Rasgado%Enrique%NULL%1,                            Morales Portano Julieta%Danira%NULL%1,                            Gómez Álvarez Enrique%Benito%NULL%1,                            Merino Rajme José%Alfredo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%2,                            Shaoqiu%Chen%NULL%1,                            Yuanyuan%Fu%NULL%1,                            Zitong%Gao%NULL%1,                            Hui%Long%NULL%1,                            Jian-ming%Wang%NULL%0,                            Hong-wei%Ren%NULL%1,                            Yi%Zuo%NULL%1,                            Huan%Li%NULL%1,                            Jie%Wang%NULL%1,                            Qing-bang%Xu%NULL%1,                            Wen-xiong%Yu%NULL%1,                            Jia%Liu%NULL%1,                            Chen%Shao%NULL%1,                            Jun-jie%Hao%NULL%1,                            Chuan-zhen%Wang%NULL%1,                            Yao%Ma%NULL%0,                            Zhanwei%Wang%NULL%1,                            Richard%Yanagihara%NULL%1,                            Youping%Deng%dengy@hawaii.edu%1]</t>
+  </si>
+  <si>
+    <t>[Mao%Huang%NULL%0,                            Yi%Yang%NULL%1,                            Futai%Shang%NULL%1,                            Yishan%Zheng%NULL%1,                            Wenjing%Zhao%NULL%1,                            Liang%Luo%NULL%1,                            Xudong%Han%NULL%1,                            Aihua%Lin%NULL%1,                            Hongsheng%Zhao%NULL%1,                            Qing%Gu%NULL%1,                            Yi%Shi%NULL%1,                            Jun%Li%NULL%1,                            Xingxiang%Xu%NULL%1,                            Kexi%Liu%NULL%1,                            YiJun%Deng%NULL%1,                            Quan%Cao%NULL%1,                            Weiwei%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chiara%Lazzeri%NULL%1,                            Manuela%Bonizzoli%NULL%1,                            Stefano%Batacchi%NULL%1,                            Giovanni%Cianchi%NULL%1,                            Andrea%Franci%NULL%1,                            Giorgio Enzo%Fulceri%NULL%1,                            Adriano%Peris%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%2,                            Jiangang%Jiang%NULL%3,                            Feng%Wang%NULL%0,                            Ning%Zhou%NULL%6,                            Giacomo%Veronese%NULL%2,                            Javid J.%Moslehi%NULL%3,                            Enrico%Ammirati%NULL%3,                            Dao Wen%Wang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[David T.%Majure%NULL%1,                            Luis%Gruberg%NULL%1,                            Shahryar G.%Saba%NULL%1,                            Charlotte%Kvasnovsky%NULL%1,                            Jamie S.%Hirsch%NULL%1,                            Rajiv%Jauhar%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                            Li-Rong%Liang%NULL%2,                            Cheng-Qing%Yang%NULL%2,                            Wen%Wang%NULL%2,                            Tan-Ze%Cao%NULL%2,                            Ming%Li%NULL%0,                            Guang-Yun%Guo%NULL%2,                            Juan%Du%NULL%2,                            Chun-Lan%Zheng%NULL%2,                            Qi%Zhu%NULL%2,                            Ming%Hu%NULL%0,                            Xu-Yan%Li%NULL%2,                            Peng%Peng%NULL%0,                            Huan-Zhong%Shi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%2,                            Joelle I.%Rosser%NULL%2,                            Orlando%Quintero%NULL%2,                            Jake%Scott%NULL%2,                            Aruna%Subramanian%NULL%2,                            Mohammad%Gumma%NULL%2,                            Angela%Rogers%NULL%2,                            Shanthi%Kappagoda%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Caroline E%Franks%NULL%1,                            Mitchell G%Scott%mgscott@wustl.edu%1,                            Christopher W%Farnsworth%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Gottlieb%michaelgottliebmd@gmail.com%1,                            Sarah%Sansom%NULL%2,                            Sarah%Sansom%NULL%0,                            Casey%Frankenberger%NULL%1,                            Edward%Ward%NULL%1,                            Bala%Hota%NULL%1,                            Timothy%Jang%NULL%2,                            Timothy%Jang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%4,                            Justin J.%Choi%NULL%3,                            Laura C.%Pinheiro%NULL%3,                            Edward J.%Schenck%NULL%3,                            Ruijun%Chen%NULL%5,                            Assem%Jabri%NULL%3,                            Michael J.%Satlin%NULL%3,                            Thomas R.%Campion%NULL%3,                            Musarrat%Nahid%NULL%3,                            Joanna B.%Ringel%NULL%3,                            Katherine L.%Hoffman%NULL%3,                            Mark N.%Alshak%NULL%3,                            Han A.%Li%NULL%3,                            Graham T.%Wehmeyer%NULL%6,                            Graham T.%Wehmeyer%NULL%0,                            Mangala%Rajan%NULL%3,                            Evgeniya%Reshetnyak%NULL%3,                            Nathaniel%Hupert%NULL%3,                            Evelyn M.%Horn%NULL%3,                            Fernando J.%Martinez%NULL%3,                            Roy M.%Gulick%NULL%3,                            Monika M.%Safford%NULL%6,                            Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anjali%Bhatla%NULL%1,                            Michael M.%Mayer%NULL%1,                            Srinath%Adusumalli%NULL%1,                            Matthew C.%Hyman%NULL%1,                            Eric%Oh%NULL%1,                            Ann%Tierney%NULL%1,                            Juwann%Moss%NULL%1,                            Anwar A.%Chahal%NULL%1,                            George%Anesi%NULL%1,                            Srinivas%Denduluri%NULL%1,                            Christopher M.%Domenico%NULL%1,                            Jeffrey%Arkles%NULL%1,                            Benjamin S.%Abella%NULL%1,                            John R.%Bullinga%NULL%1,                            David J.%Callans%NULL%1,                            Sanjay%Dixit%NULL%1,                            Andrew E.%Epstein%NULL%1,                            David S.%Frankel%NULL%1,                            Fermin C.%Garcia%NULL%1,                            Ramanan%Kumareswaram%NULL%1,                            Saman%Nazarian%NULL%1,                            Michael P.%Riley%NULL%1,                            Pasquale%Santangeli%NULL%1,                            Robert D.%Schaller%NULL%1,                            Gregory E.%Supple%NULL%1,                            David%Lin%NULL%1,                            Francis%Marchlinski%NULL%1,                            Rajat%Deo%Rajat.Deo@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                            Bijan J.%Ghassemieh%NULL%0,                            Michelle%Nichols%NULL%0,                            Richard%Kim%NULL%0,                            Keith R.%Jerome%NULL%0,                            Arun K.%Nalla%NULL%0,                            Alexander L.%Greninger%NULL%0,                            Sudhakar%Pipavath%NULL%0,                            Mark M.%Wurfel%NULL%0,                            Laura%Evans%NULL%0,                            Patricia A.%Kritek%NULL%0,                            T. Eoin%West%NULL%0,                            Andrew%Luks%NULL%0,                            Anthony%Gerbino%NULL%0,                            Chris R.%Dale%NULL%0,                            Jason D.%Goldman%NULL%0,                            Shane%O’Mahony%NULL%0,                            Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%4,                            Denise J%McCulloch%NULL%4,                            Denise J%McCulloch%NULL%0,                            Vidya%Atluri%NULL%2,                            Michela%Blain%NULL%2,                            Sarah A%McGuffin%NULL%2,                            Arun K%Nalla%NULL%2,                            Meei-Li%Huang%NULL%2,                            Alex L%Greninger%NULL%2,                            Keith R%Jerome%NULL%2,                            Seth A%Cohen%NULL%2,                            Santiago%Neme%NULL%2,                            Margaret L%Green%NULL%2,                            Helen Y%Chu%NULL%2,                            H Nina%Kim%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luca%Arcari%luca_arcari@outlook.it%1,                            Michelangelo%Luciani%NULL%2,                            Michelangelo%Luciani%NULL%0,                            Luca%Cacciotti%NULL%1,                            Maria Beatrice%Musumeci%NULL%1,                            Valerio%Spuntarelli%NULL%1,                            Eleonora%Pistella%NULL%1,                            Dario%Martolini%NULL%1,                            Daniele%Manzo%NULL%1,                            Mariateresa%Pucci%NULL%1,                            Claudio%Marone%NULL%1,                            Serena%Melandri%NULL%1,                            Gerardo%Ansalone%NULL%1,                            Claudio%Santini%NULL%1,                            Paolo%Martelletti%NULL%1,                            Massimo%Volpe%NULL%1,                            Luciano%De Biase%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elie%Azoulay%elie.azoulay@aphp.fr%1,                            Muriel%Fartoukh%NULL%2,                            Muriel%Fartoukh%NULL%0,                            Michael%Darmon%NULL%1,                            Guillaume%Géri%NULL%1,                            Guillaume%Voiriot%NULL%1,                            Thibault%Dupont%NULL%1,                            Lara%Zafrani%NULL%1,                            Lola%Girodias%NULL%1,                            Vincent%Labbé%NULL%1,                            Martin%Dres%NULL%1,                            Alexandra%Beurton%NULL%1,                            Antoine%Vieillard-Baron%NULL%1,                            Alexandre%Demoule%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hasan Ali%Barman%NULL%1,                            Adem%Atici%NULL%1,                            Irfan%Sahin%NULL%1,                            Gokhan%Alici%NULL%1,                            Esra%Aktas Tekin%NULL%1,                            Ömer Faruk%Baycan%NULL%1,                            Fatih%Ozturk%NULL%1,                            Ersan%Oflar%NULL%1,                            Sevil%Tugrul%NULL%1,                            Mustafa baran%Yavuz%NULL%1,                            Fatma Betul%Celik%NULL%1,                            Aysu%Oktay%NULL%1,                            Haluk%Vahaboglu%NULL%1,                            Mine%Adas%NULL%1,                            Namigar%Turgut%NULL%1,                            Ertugrul%Okuyan%NULL%1,                            Mustafa Taner%Yildirmak%NULL%1,                            Baris%Gungor%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alberto%Cipriani%alberto.cipriani@unipd.it%1,                            Federico%Capone%NULL%2,                            Federico%Capone%NULL%0,                            Filippo%Donato%NULL%1,                            Leonardo%Molinari%NULL%1,                            Davide%Ceccato%NULL%1,                            Alois%Saller%NULL%1,                            Lorenzo%Previato%NULL%1,                            Raffaele%Pesavento%NULL%1,                            Cristiano%Sarais%NULL%1,                            Paola%Fioretto%NULL%2,                            Sabino%Iliceto%NULL%1,                            Dario%Gregori%NULL%1,                            Angelo%Avogaro%NULL%1,                            Roberto%Vettor%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%2,                             Miao%Yu%NULL%2,                             Tian%Xie%NULL%2,                             Fen%Yang%NULL%2,                             Hong-Bo%Wang%NULL%2,                             Zhao-Hui%Wang%NULL%2,                             Ming%Li%NULL%4,                             Xing-Li%Gao%NULL%2,                             Bing-Jie%Lv%NULL%2,                             Shi-Jia%Wang%NULL%2,                             Xiao-Bo%Zhang%NULL%2,                             Shao-Lin%He%NULL%2,                             Zhi-Hua%Qiu%NULL%2,                             Yu-Hua%Liao%NULL%2,                             Zi-Hua%Zhou%NULL%2,                             Xiang%Cheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                             Simon A%Jones%NULL%3,                             Jie%Yang%NULL%5,                             Harish%Rajagopalan%NULL%3,                             Luke%O’Donnell%NULL%3,                             Yelena%Chernyak%NULL%3,                             Katie A%Tobin%NULL%3,                             Robert J%Cerfolio%NULL%3,                             Fritz%Francois%NULL%3,                             Leora I%Horwitz%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%0,                             Jeffrey%Burton%NULL%2,                             Jeffrey%Burton%NULL%0,                             Daniel%Fort%NULL%1,                             Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohamad%Raad%NULL%1,                             Mohammed%Dabbagh%NULL%1,                             Sarah%Gorgis%NULL%1,                             Jerry%Yan%NULL%1,                             Omar%Chehab%NULL%1,                             Carina%Dagher%NULL%2,                             Khaled%Jamoor%NULL%1,                             Inaya Hajj%Hussein%NULL%1,                             Bernard%Cook%NULL%1,                             Meredith%Van Harn%NULL%1,                             Gurjit%Singh%NULL%1,                             James%McCord%NULL%1,                             Sachin%Parikh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%NULL%1,                             Rajkumar%Doshi%NULL%1,                             Avantika%Chenna%NULL%1,                             Robin%Owens%NULL%1,                             Abigail%Cobb%NULL%1,                             Holley%Ivey%NULL%1,                             Sarah%Newton%NULL%1,                             Kelly%Mccarley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sachin J.%Shah%sachin.shah@ucsf.edu%1,                             Peter N.%Barish%NULL%1,                             Priya A.%Prasad%NULL%1,                             Amy%Kistler%NULL%1,                             Norma%Neff%NULL%1,                             Jack%Kamm%NULL%1,                             Lucy M.%Li%NULL%1,                             Charles Y.%Chiu%NULL%1,                             Jennifer M.%Babik%NULL%1,                             Margaret C.%Fang%NULL%1,                             Yumiko%Abe-Jones%NULL%1,                             Narges%Alipanah%NULL%1,                             Francisco N.%Alvarez%NULL%1,                             Olga Borisovna%Botvinnik%NULL%1,                             Gloria%Castaneda%NULL%1,                             NULL%NULL%NULL%0,                             Rand M.%Dadasovich%NULL%1,                             Jennifer%Davis%NULL%1,                             Xianding%Deng%NULL%1,                             Joseph L.%DeRisi%NULL%1,                             Angela M.%Detweiler%NULL%1,                             Scot%Federman%NULL%1,                             John%Haliburton%NULL%1,                             Samantha%Hao%NULL%1,                             Andrew D.%Kerkhoff%NULL%1,                             G. Renuka%Kumar%NULL%1,                             Katherine B.%Malcolm%NULL%1,                             Sabrina A.%Mann%NULL%1,                             Sandra%Martinez%NULL%1,                             Rupa K.%Mary%NULL%1,                             Eran%Mick%NULL%1,                             Lusajo%Mwakibete%NULL%1,                             Nader%Najafi%NULL%1,                             Michael J.%Peluso%NULL%1,                             Maira%Phelps%NULL%1,                             Angela Oliveira%Pisco%NULL%1,                             Kalani%Ratnasiri%NULL%1,                             Luis A.%Rubio%NULL%1,                             Anna%Sellas%NULL%1,                             Kyla D.%Sherwood%NULL%1,                             Jonathan%Sheu%NULL%1,                             Natasha%Spottiswoode%NULL%1,                             Michelle%Tan%NULL%1,                             Guixia%Yu%NULL%1,                             Kirsten Neudoerffer%Kangelaris%NULL%1,                             Charles%Langelier%chaz.langelier@ucsf.edu%1]</t>
+  </si>
+  <si>
+    <t>[Yinzhong%Shen%NULL%0,                             Fang%Zheng%NULL%3,                             Fang%Zheng%NULL%0,                             Danfeng%Sun%NULL%1,                             Yun%Ling%NULL%3,                             Jun%Chen%NULL%4,                             Feng%Li%NULL%3,                             Feng%Li%NULL%0,                             Tao%Li%NULL%2,                             Zhiping%Qian%NULL%1,                             Yuyi%Zhang%NULL%1,                             Qingnian%Xu%NULL%1,                             Li%Liu%NULL%0,                             Qin%Huang%NULL%1,                             Fei%Shan%NULL%1,                             Lie%Xu%NULL%1,                             Jun%Wu%NULL%1,                             Zhaoqin%Zhu%NULL%1,                             Zhigang%Song%NULL%1,                             Shenyang%Li%NULL%1,                             Yuxin%Shi%NULL%1,                             Jianliang%Zhang%NULL%1,                             Xueyun%Wu%NULL%1,                             Joshua B.%Mendelsohn%NULL%2,                             Joshua B.%Mendelsohn%NULL%0,                             Tongyu%Zhu%NULL%1,                             Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[F. M. A.%van den Heuvel%NULL%1,                             J. L.%Vos%NULL%1,                             Y.%Koop%NULL%1,                             A. P. J.%van Dijk%NULL%1,                             A. L.%Duijnhouwer%NULL%1,                             Q.%de Mast%NULL%1,                             F. L.%van de Veerdonk%NULL%1,                             F.%Bosch%NULL%1,                             B.%Kok%NULL%1,                             M. G.%Netea%NULL%1,                             J.%Hoogerwerf%NULL%1,                             W.%Hoefsloot%NULL%1,                             E. T. T. L.%Tjwa%NULL%1,                             C. L.%de Korte%NULL%1,                             R. R. J.%van Kimmenade%NULL%1,                             R.%Nijveldt%robin@nijveldt.net%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%2,                             Fang-Yang%Huang%NULL%2,                             Tian-Yuan%Xiong%NULL%4,                             Tian-Yuan%Xiong%NULL%0,                             Qi%Liu%NULL%2,                             Hong%Chen%NULL%3,                             Hui%Wang%NULL%0,                             He%Huang%NULL%3,                             Yi-Chun%Luo%NULL%2,                             Xuan%Zhou%NULL%2,                             Zhi-Yue%Liu%NULL%2,                             Yong%Peng%NULL%2,                             Yuan-Ning%Xu%NULL%2,                             Bo%Wang%NULL%0,                             Ying-Ying%Yang%NULL%2,                             Zong-An%Liang%NULL%3,                             Xue-Zhong%Lei%NULL%2,                             Yang%Ge%NULL%2,                             Ming%Yang%NULL%3,                             Ling%Zhang%NULL%0,                             Ming-Quan%Zeng%NULL%2,                             He%Yu%NULL%2,                             Kai%Liu%NULL%2,                             Yu-Heng%Jia%NULL%2,                             Bernard D%Prendergast%NULL%2,                             Wei-Min%Li%NULL%5,                             Wei-Min%Li%NULL%0,                             Mao%Chen%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%4,                             Dan%Xu%NULL%5,                             Shouzhi%Fu%NULL%5,                             Jun%Zhang%NULL%4,                             Xiaobo%Yang%NULL%4,                             Liang%Xu%NULL%4,                             Jiqian%Xu%NULL%9,                             Yongran%Wu%NULL%9,                             Chaolin%Huang%NULL%4,                             Yaqi%Ouyang%NULL%4,                             Luyu%Yang%NULL%4,                             Minghao%Fang%NULL%11,                             Hongwen%Xiao%NULL%4,                             Jing%Ma%NULL%4,                             Wei%Zhu%NULL%0,                             Song%Hu%NULL%4,                             Quan%Hu%NULL%4,                             Daoyin%Ding%NULL%4,                             Ming%Hu%NULL%8,                             Guochao%Zhu%NULL%4,                             Weijiang%Xu%NULL%4,                             Jun%Guo%NULL%4,                             Jinglong%Xu%NULL%4,                             Haitao%Yuan%NULL%4,                             Bin%Zhang%NULL%5,                             Zhui%Yu%yuzhui@whu.edu.cn%9,                             Dechang%Chen%icudechangchen@163.com%4,                             Shiying%Yuan%yuan_shiying@163.com%9,                             You%Shang%you_shanghust@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Jia-Hui%Zeng%zengjiahui1993@163.com%1,                             Wei-Bo%Wu%13923451469@139.com%2,                             Wei-Bo%Wu%13923451469@139.com%0,                             Jiu-Xin%Qu%qujiuxin@163.com%1,                             Yao%Wang%68848030@qq.com%1,                             Chang-Feng%Dong%dongchangfeng7@163.com%1,                             Yong-Fang%Luo%luoyongfang2005@foxmail.com%1,                             Dan%Zhou%506057507@qq.com%1,                             Wen-Xia%Feng%1484177993@qq.com%1,                             Cheng%Feng%chaosheng-01@szsy.sustech.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xin-Ying%Zhao%NULL%1,                             Xuan-Xuan%Xu%NULL%1,                             Hai-Sen%Yin%NULL%1,                             Qin-Ming%Hu%NULL%1,                             Tao%Xiong%NULL%1,                             Yuan-Yan%Tang%NULL%1,                             Ai-Ying%Yang%NULL%1,                             Bao-Ping%Yu%yubp62@163.com%1,                             Zhi-Ping%Huang%huangzhipingdoctor@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                             Ting%Yu%NULL%0,                             Ronghui%Du%NULL%0,                             Guohui%Fan%NULL%0,                             Ying%Liu%NULL%0,                             Zhibo%Liu%NULL%0,                             Jie%Xiang%NULL%0,                             Yeming%Wang%NULL%0,                             Bin%Song%NULL%0,                             Xiaoying%Gu%NULL%0,                             Lulu%Guan%NULL%0,                             Yuan%Wei%NULL%0,                             Hui%Li%NULL%0,                             Xudong%Wu%NULL%0,                             Jiuyang%Xu%NULL%0,                             Shengjin%Tu%NULL%0,                             Yi%Zhang%NULL%0,                             Hua%Chen%NULL%0,                             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aquino Bruno%Heberto%NULL%1,                             Plata Corona Juan%Carlos%vic_plata@hotmail.com%1,                             Castro Rubio José%Antonio%NULL%1,                             Pulido Pérez%Patricia%NULL%1,                             Torres Rasgado%Enrique%NULL%1,                             Morales Portano Julieta%Danira%NULL%1,                             Gómez Álvarez Enrique%Benito%NULL%1,                             Merino Rajme José%Alfredo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%2,                             Shaoqiu%Chen%NULL%1,                             Yuanyuan%Fu%NULL%1,                             Zitong%Gao%NULL%1,                             Hui%Long%NULL%1,                             Jian-ming%Wang%NULL%0,                             Hong-wei%Ren%NULL%1,                             Yi%Zuo%NULL%1,                             Huan%Li%NULL%1,                             Jie%Wang%NULL%1,                             Qing-bang%Xu%NULL%1,                             Wen-xiong%Yu%NULL%1,                             Jia%Liu%NULL%1,                             Chen%Shao%NULL%1,                             Jun-jie%Hao%NULL%1,                             Chuan-zhen%Wang%NULL%1,                             Yao%Ma%NULL%0,                             Zhanwei%Wang%NULL%1,                             Richard%Yanagihara%NULL%1,                             Youping%Deng%dengy@hawaii.edu%1]</t>
+  </si>
+  <si>
+    <t>[Mao%Huang%NULL%0,                             Yi%Yang%NULL%1,                             Futai%Shang%NULL%1,                             Yishan%Zheng%NULL%1,                             Wenjing%Zhao%NULL%1,                             Liang%Luo%NULL%1,                             Xudong%Han%NULL%1,                             Aihua%Lin%NULL%1,                             Hongsheng%Zhao%NULL%1,                             Qing%Gu%NULL%1,                             Yi%Shi%NULL%1,                             Jun%Li%NULL%1,                             Xingxiang%Xu%NULL%1,                             Kexi%Liu%NULL%1,                             YiJun%Deng%NULL%1,                             Quan%Cao%NULL%1,                             Weiwei%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chiara%Lazzeri%NULL%1,                             Manuela%Bonizzoli%NULL%1,                             Stefano%Batacchi%NULL%1,                             Giovanni%Cianchi%NULL%1,                             Andrea%Franci%NULL%1,                             Giorgio Enzo%Fulceri%NULL%1,                             Adriano%Peris%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%2,                             Jiangang%Jiang%NULL%3,                             Feng%Wang%NULL%0,                             Ning%Zhou%NULL%6,                             Giacomo%Veronese%NULL%2,                             Javid J.%Moslehi%NULL%3,                             Enrico%Ammirati%NULL%3,                             Dao Wen%Wang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[David T.%Majure%NULL%1,                             Luis%Gruberg%NULL%1,                             Shahryar G.%Saba%NULL%1,                             Charlotte%Kvasnovsky%NULL%1,                             Jamie S.%Hirsch%NULL%1,                             Rajiv%Jauhar%NULL%1,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                             Li-Rong%Liang%NULL%2,                             Cheng-Qing%Yang%NULL%2,                             Wen%Wang%NULL%2,                             Tan-Ze%Cao%NULL%2,                             Ming%Li%NULL%0,                             Guang-Yun%Guo%NULL%2,                             Juan%Du%NULL%2,                             Chun-Lan%Zheng%NULL%2,                             Qi%Zhu%NULL%2,                             Ming%Hu%NULL%0,                             Xu-Yan%Li%NULL%2,                             Peng%Peng%NULL%0,                             Huan-Zhong%Shi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%2,                             Joelle I.%Rosser%NULL%2,                             Orlando%Quintero%NULL%2,                             Jake%Scott%NULL%2,                             Aruna%Subramanian%NULL%2,                             Mohammad%Gumma%NULL%2,                             Angela%Rogers%NULL%2,                             Shanthi%Kappagoda%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Caroline E%Franks%NULL%1,                             Mitchell G%Scott%mgscott@wustl.edu%1,                             Christopher W%Farnsworth%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Gottlieb%michaelgottliebmd@gmail.com%1,                             Sarah%Sansom%NULL%2,                             Sarah%Sansom%NULL%0,                             Casey%Frankenberger%NULL%1,                             Edward%Ward%NULL%1,                             Bala%Hota%NULL%1,                             Timothy%Jang%NULL%2,                             Timothy%Jang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%4,                             Justin J.%Choi%NULL%3,                             Laura C.%Pinheiro%NULL%3,                             Edward J.%Schenck%NULL%3,                             Ruijun%Chen%NULL%5,                             Assem%Jabri%NULL%3,                             Michael J.%Satlin%NULL%3,                             Thomas R.%Campion%NULL%3,                             Musarrat%Nahid%NULL%3,                             Joanna B.%Ringel%NULL%3,                             Katherine L.%Hoffman%NULL%3,                             Mark N.%Alshak%NULL%3,                             Han A.%Li%NULL%3,                             Graham T.%Wehmeyer%NULL%6,                             Graham T.%Wehmeyer%NULL%0,                             Mangala%Rajan%NULL%3,                             Evgeniya%Reshetnyak%NULL%3,                             Nathaniel%Hupert%NULL%3,                             Evelyn M.%Horn%NULL%3,                             Fernando J.%Martinez%NULL%3,                             Roy M.%Gulick%NULL%3,                             Monika M.%Safford%NULL%6,                             Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anjali%Bhatla%NULL%1,                             Michael M.%Mayer%NULL%1,                             Srinath%Adusumalli%NULL%1,                             Matthew C.%Hyman%NULL%1,                             Eric%Oh%NULL%1,                             Ann%Tierney%NULL%1,                             Juwann%Moss%NULL%1,                             Anwar A.%Chahal%NULL%1,                             George%Anesi%NULL%1,                             Srinivas%Denduluri%NULL%1,                             Christopher M.%Domenico%NULL%1,                             Jeffrey%Arkles%NULL%1,                             Benjamin S.%Abella%NULL%1,                             John R.%Bullinga%NULL%1,                             David J.%Callans%NULL%1,                             Sanjay%Dixit%NULL%1,                             Andrew E.%Epstein%NULL%1,                             David S.%Frankel%NULL%1,                             Fermin C.%Garcia%NULL%1,                             Ramanan%Kumareswaram%NULL%1,                             Saman%Nazarian%NULL%1,                             Michael P.%Riley%NULL%1,                             Pasquale%Santangeli%NULL%1,                             Robert D.%Schaller%NULL%1,                             Gregory E.%Supple%NULL%1,                             David%Lin%NULL%1,                             Francis%Marchlinski%NULL%1,                             Rajat%Deo%Rajat.Deo@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                             Bijan J.%Ghassemieh%NULL%0,                             Michelle%Nichols%NULL%0,                             Richard%Kim%NULL%0,                             Keith R.%Jerome%NULL%0,                             Arun K.%Nalla%NULL%0,                             Alexander L.%Greninger%NULL%0,                             Sudhakar%Pipavath%NULL%0,                             Mark M.%Wurfel%NULL%0,                             Laura%Evans%NULL%0,                             Patricia A.%Kritek%NULL%0,                             T. Eoin%West%NULL%0,                             Andrew%Luks%NULL%0,                             Anthony%Gerbino%NULL%0,                             Chris R.%Dale%NULL%0,                             Jason D.%Goldman%NULL%0,                             Shane%O’Mahony%NULL%0,                             Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%4,                             Denise J%McCulloch%NULL%4,                             Denise J%McCulloch%NULL%0,                             Vidya%Atluri%NULL%2,                             Michela%Blain%NULL%2,                             Sarah A%McGuffin%NULL%2,                             Arun K%Nalla%NULL%2,                             Meei-Li%Huang%NULL%2,                             Alex L%Greninger%NULL%2,                             Keith R%Jerome%NULL%2,                             Seth A%Cohen%NULL%2,                             Santiago%Neme%NULL%2,                             Margaret L%Green%NULL%2,                             Helen Y%Chu%NULL%2,                             H Nina%Kim%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luca%Arcari%luca_arcari@outlook.it%1,                             Michelangelo%Luciani%NULL%2,                             Michelangelo%Luciani%NULL%0,                             Luca%Cacciotti%NULL%1,                             Maria Beatrice%Musumeci%NULL%1,                             Valerio%Spuntarelli%NULL%1,                             Eleonora%Pistella%NULL%1,                             Dario%Martolini%NULL%1,                             Daniele%Manzo%NULL%1,                             Mariateresa%Pucci%NULL%1,                             Claudio%Marone%NULL%1,                             Serena%Melandri%NULL%1,                             Gerardo%Ansalone%NULL%1,                             Claudio%Santini%NULL%1,                             Paolo%Martelletti%NULL%1,                             Massimo%Volpe%NULL%1,                             Luciano%De Biase%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elie%Azoulay%elie.azoulay@aphp.fr%1,                             Muriel%Fartoukh%NULL%2,                             Muriel%Fartoukh%NULL%0,                             Michael%Darmon%NULL%1,                             Guillaume%Géri%NULL%1,                             Guillaume%Voiriot%NULL%1,                             Thibault%Dupont%NULL%1,                             Lara%Zafrani%NULL%1,                             Lola%Girodias%NULL%1,                             Vincent%Labbé%NULL%1,                             Martin%Dres%NULL%1,                             Alexandra%Beurton%NULL%1,                             Antoine%Vieillard-Baron%NULL%1,                             Alexandre%Demoule%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hasan Ali%Barman%NULL%1,                             Adem%Atici%NULL%1,                             Irfan%Sahin%NULL%1,                             Gokhan%Alici%NULL%1,                             Esra%Aktas Tekin%NULL%1,                             Ömer Faruk%Baycan%NULL%1,                             Fatih%Ozturk%NULL%1,                             Ersan%Oflar%NULL%1,                             Sevil%Tugrul%NULL%1,                             Mustafa baran%Yavuz%NULL%1,                             Fatma Betul%Celik%NULL%1,                             Aysu%Oktay%NULL%1,                             Haluk%Vahaboglu%NULL%1,                             Mine%Adas%NULL%1,                             Namigar%Turgut%NULL%1,                             Ertugrul%Okuyan%NULL%1,                             Mustafa Taner%Yildirmak%NULL%1,                             Baris%Gungor%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alberto%Cipriani%alberto.cipriani@unipd.it%1,                             Federico%Capone%NULL%2,                             Federico%Capone%NULL%0,                             Filippo%Donato%NULL%1,                             Leonardo%Molinari%NULL%1,                             Davide%Ceccato%NULL%1,                             Alois%Saller%NULL%1,                             Lorenzo%Previato%NULL%1,                             Raffaele%Pesavento%NULL%1,                             Cristiano%Sarais%NULL%1,                             Paola%Fioretto%NULL%2,                             Sabino%Iliceto%NULL%1,                             Dario%Gregori%NULL%1,                             Angelo%Avogaro%NULL%1,                             Roberto%Vettor%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0, Miao%Yu%NULL%3, Tian%Xie%NULL%2, Fen%Yang%NULL%2, Hong-Bo%Wang%NULL%2, Zhao-Hui%Wang%NULL%2, Ming%Li%NULL%0, Xing-Li%Gao%NULL%2, Bing-Jie%Lv%NULL%2, Shi-Jia%Wang%NULL%2, Xiao-Bo%Zhang%NULL%2, Shao-Lin%He%NULL%2, Zhi-Hua%Qiu%NULL%2, Yu-Hua%Liao%NULL%2, Zi-Hua%Zhou%NULL%2, Xiang%Cheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0, Simon A%Jones%NULL%0, Jie%Yang%NULL%0, Harish%Rajagopalan%NULL%0, Luke%O’Donnell%NULL%0, Yelena%Chernyak%NULL%0, Katie A%Tobin%NULL%0, Robert J%Cerfolio%NULL%0, Fritz%Francois%NULL%0, Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%0, Jeffrey%Burton%NULL%0, Jeffrey%Burton%NULL%0, Daniel%Fort%NULL%0, Leonardo%Seoane%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although certain risk factors have been associated with increased morbidity and mortality in patients admitted with Coronavirus Disease 2019 (COVID-19), the impact of cardiac injury and high-sensitivity troponin-I (hs-cTnI) concentrations are not well described.
+ In this large retrospective longitudinal cohort study, we analyzed the cases of 1,044 consecutively admitted patients with COVID-19 from March 9 until April 15. Cardiac injury was defined by hs-cTnI concentration &amp;gt;99th percentile.
+ Patient characteristics, laboratory data, and outcomes were described in patients with cardiac injury and different hs-cTnI cut-offs.
+ The primary outcome was mortality, and the secondary outcomes were length of stay, need for intensive care unit care or mechanical ventilation, and their different composites.
+ The final analyzed cohort included 1,020 patients.
+ The median age was 63 years, 511 (50% patients were female, and 403 (40% were white.
+ 390 (38%) patients had cardiac injury on presentation.
+ These patients were older (median age 70 years), had a higher cardiovascular disease burden, in addition to higher serum concentrations of inflammatory markers.
+ They also exhibited an increased risk for our primary and secondary outcomes, with the risk increasing with higher hs-cTnI concentrations.
+ Peak hs-cTnI concentrations continued to be significantly associated with mortality after a multivariate regression controlling for comorbid conditions, inflammatory markers, acute kidney injury, and acute respiratory distress syndrome.
+ Within the same multivariate regression model, presenting hs-cTnI concentrations were not significantly associated with outcomes, and undetectable hs-cTnI concentrations on presentation did not completely rule out the risk for mechanical ventilation or death.
+ In conclusion, cardiac injury was common in patients admitted with COVID-19. The extent of cardiac injury and peak hs-cTnI concentrations were associated with worse outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Mohamad%Raad%NULL%0, Mohammed%Dabbagh%NULL%1, Sarah%Gorgis%NULL%1, Jerry%Yan%NULL%1, Omar%Chehab%NULL%1, Carina%Dagher%NULL%2, Khaled%Jamoor%NULL%1, Inaya Hajj%Hussein%NULL%1, Bernard%Cook%NULL%1, Meredith%Van Harn%NULL%1, Gurjit%Singh%NULL%1, James%McCord%NULL%1, Sachin%Parikh%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study aimed to determine if cardiac troponin I (cTnI) is an independent predictor of clinical outcomes and whether higher values are associated with worse clinical outcomes in Covid-19 patients.
+ This case-series study was conducted at Phoebe Putney Health System.
+ Participants were confirmed Covid-19 patients admitted to our health system between March 2, 2020 and June 7, 2020. Data were collected from electronic medical records.
+ Patients were divided into 2 groups: with and without elevated cTnI.
+ The cTnI were further divided in 4 tertiles.
+ Multivariable logistic regression analysis was performed to adjust for demographics, baseline comorbidities, and laboratory parameters including D-dimer, ferritin, lactate dehydrogenase, procalcitonin and C-reactive protein.
+ Out of 309 patients, 116 (37.5%) had elevated cTnI.
+ Those with elevated cTnI were older (59.9 vs.
+ 68.2 years, p &amp;lt;0.001), and more likely to be males (53.5% vs.
+ 36.3%, p = 0.003).
+ Elevated cTnI group had higher baseline comorbidities.
+ After multivariable adjustment, overall mortality was significantly higher in elevated cTnI group (37.9% vs.
+ 11.4%, odds ratio:4.45; confidence interval:1.78 to 11.14, p &amp;lt;0.001).
+ Need for intubation, dialysis, and intensive care unit (ICU) transfer was higher in elevated cTnI group.
+ Among those with elevated cTnI, mortality was 23.2% for 50th percentile, 48.4% for 75th percentile, and 55.2% for 100th percentile.
+ Similarly, further increase in cTnI was associated with a higher need for intubation, dialysis, and ICU transfer.
+ In conclusion, myocardial injury occurs in significant proportion of hospitalized Covid-19 patients and is an independent predictor of clinical outcomes, with higher values associated with worse outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%NULL%0, Rajkumar%Doshi%NULL%0, Avantika%Chenna%NULL%1, Robin%Owens%NULL%1, Abigail%Cobb%NULL%1, Holley%Ivey%NULL%1, Sarah%Newton%NULL%1, Kelly%Mccarley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sachin J.%Shah%sachin.shah@ucsf.edu%0, Peter N.%Barish%NULL%1, Priya A.%Prasad%NULL%1, Amy%Kistler%NULL%0, Norma%Neff%NULL%1, Jack%Kamm%NULL%0, Lucy M.%Li%NULL%1, Charles Y.%Chiu%NULL%1, Jennifer M.%Babik%NULL%1, Margaret C.%Fang%NULL%1, Yumiko%Abe-Jones%NULL%1, Narges%Alipanah%NULL%1, Francisco N.%Alvarez%NULL%1, Olga Borisovna%Botvinnik%NULL%1, Gloria%Castaneda%NULL%1, NULL%NULL%NULL%0, Rand M.%Dadasovich%NULL%1, Jennifer%Davis%NULL%1, Xianding%Deng%NULL%1, Joseph L.%DeRisi%NULL%1, Angela M.%Detweiler%NULL%1, Scot%Federman%NULL%1, John%Haliburton%NULL%1, Samantha%Hao%NULL%0, Andrew D.%Kerkhoff%NULL%1, G. Renuka%Kumar%NULL%1, Katherine B.%Malcolm%NULL%1, Sabrina A.%Mann%NULL%1, Sandra%Martinez%NULL%1, Rupa K.%Mary%NULL%1, Eran%Mick%NULL%1, Lusajo%Mwakibete%NULL%1, Nader%Najafi%NULL%1, Michael J.%Peluso%NULL%1, Maira%Phelps%NULL%1, Angela Oliveira%Pisco%NULL%1, Kalani%Ratnasiri%NULL%1, Luis A.%Rubio%NULL%1, Anna%Sellas%NULL%1, Kyla D.%Sherwood%NULL%1, Jonathan%Sheu%NULL%1, Natasha%Spottiswoode%NULL%1, Michelle%Tan%NULL%1, Guixia%Yu%NULL%1, Kirsten Neudoerffer%Kangelaris%NULL%1, Charles%Langelier%chaz.langelier@ucsf.edu%1]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: Novel coronavirus pneumonia (COVID-19) is prevalent around the world.
+ We aimed to describe epidemiological features and clinical course in Shanghai.
+</t>
+  </si>
+  <si>
+    <t>[Yinzhong%Shen%NULL%0, Fang%Zheng%NULL%0, Fang%Zheng%NULL%0, Danfeng%Sun%NULL%0, Yun%Ling%NULL%0, Jun%Chen%NULL%0, Feng%Li%NULL%0, Feng%Li%NULL%0, Tao%Li%NULL%0, Zhiping%Qian%NULL%0, Yuyi%Zhang%NULL%0, Qingnian%Xu%NULL%0, Li%Liu%NULL%0, Qin%Huang%NULL%0, Fei%Shan%NULL%0, Lie%Xu%NULL%0, Jun%Wu%NULL%0, Zhaoqin%Zhu%NULL%0, Zhigang%Song%NULL%0, Shenyang%Li%NULL%0, Yuxin%Shi%NULL%0, Jianliang%Zhang%NULL%0, Xueyun%Wu%NULL%0, Joshua B.%Mendelsohn%NULL%0, Joshua B.%Mendelsohn%NULL%0, Tongyu%Zhu%NULL%0, Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Taylor &amp;amp; Francis</t>
+  </si>
+  <si>
+    <t>[F. M. A.%van den Heuvel%NULL%0, J. L.%Vos%NULL%1, Y.%Koop%NULL%1, A. P. J.%van Dijk%NULL%1, A. L.%Duijnhouwer%NULL%1, Q.%de Mast%NULL%1, F. L.%van de Veerdonk%NULL%1, F.%Bosch%NULL%1, B.%Kok%NULL%1, M. G.%Netea%NULL%1, J.%Hoogerwerf%NULL%1, W.%Hoefsloot%NULL%1, E. T. T. L.%Tjwa%NULL%1, C. L.%de Korte%NULL%1, R. R. J.%van Kimmenade%NULL%1, R.%Nijveldt%robin@nijveldt.net%1]</t>
+  </si>
+  <si>
+    <t>Bohn Stafleu van Loghum</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0, Fang-Yang%Huang%NULL%2, Tian-Yuan%Xiong%NULL%4, Tian-Yuan%Xiong%NULL%0, Qi%Liu%NULL%2, Hong%Chen%NULL%4, Hui%Wang%NULL%0, He%Huang%NULL%6, Yi-Chun%Luo%NULL%2, Xuan%Zhou%NULL%2, Zhi-Yue%Liu%NULL%2, Yong%Peng%NULL%0, Yuan-Ning%Xu%NULL%2, Bo%Wang%NULL%0, Ying-Ying%Yang%NULL%2, Zong-An%Liang%NULL%3, Xue-Zhong%Lei%NULL%2, Yang%Ge%NULL%2, Ming%Yang%NULL%0, Ling%Zhang%NULL%0, Ming-Quan%Zeng%NULL%2, He%Yu%NULL%2, Kai%Liu%NULL%0, Yu-Heng%Jia%NULL%2, Bernard D%Prendergast%NULL%2, Wei-Min%Li%NULL%5, Wei-Min%Li%NULL%0, Mao%Chen%NULL%2]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0, Dan%Xu%NULL%0, Shouzhi%Fu%NULL%0, Jun%Zhang%NULL%0, Xiaobo%Yang%NULL%0, Liang%Xu%NULL%4, Jiqian%Xu%NULL%0, Yongran%Wu%NULL%0, Chaolin%Huang%NULL%0, Yaqi%Ouyang%NULL%0, Luyu%Yang%NULL%0, Minghao%Fang%NULL%0, Hongwen%Xiao%NULL%4, Jing%Ma%NULL%0, Wei%Zhu%NULL%0, Song%Hu%NULL%0, Quan%Hu%NULL%4, Daoyin%Ding%NULL%4, Ming%Hu%NULL%0, Guochao%Zhu%NULL%0, Weijiang%Xu%NULL%4, Jun%Guo%NULL%4, Jinglong%Xu%NULL%4, Haitao%Yuan%NULL%4, Bin%Zhang%NULL%0, Zhui%Yu%yuzhui@whu.edu.cn%0, Dechang%Chen%icudechangchen@163.com%4, Shiying%Yuan%yuan_shiying@163.com%0, You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Jia-Hui%Zeng%zengjiahui1993@163.com%0, Wei-Bo%Wu%13923451469@139.com%2, Wei-Bo%Wu%13923451469@139.com%0, Jiu-Xin%Qu%qujiuxin@163.com%1, Yao%Wang%68848030@qq.com%1, Chang-Feng%Dong%dongchangfeng7@163.com%1, Yong-Fang%Luo%luoyongfang2005@foxmail.com%1, Dan%Zhou%506057507@qq.com%1, Wen-Xia%Feng%1484177993@qq.com%1, Cheng%Feng%chaosheng-01@szsy.sustech.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Xin-Ying%Zhao%NULL%0, Xuan-Xuan%Xu%NULL%1, Hai-Sen%Yin%NULL%1, Qin-Ming%Hu%NULL%1, Tao%Xiong%NULL%1, Yuan-Yan%Tang%NULL%1, Ai-Ying%Yang%NULL%1, Bao-Ping%Yu%yubp62@163.com%1, Zhi-Ping%Huang%huangzhipingdoctor@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Aquino Bruno%Heberto%NULL%0, Plata Corona Juan%Carlos%vic_plata@hotmail.com%1, Castro Rubio José%Antonio%NULL%1, Pulido Pérez%Patricia%NULL%1, Torres Rasgado%Enrique%NULL%1, Morales Portano Julieta%Danira%NULL%1, Gómez Álvarez Enrique%Benito%NULL%1, Merino Rajme José%Alfredo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0, Shaoqiu%Chen%NULL%2, Yuanyuan%Fu%NULL%2, Zitong%Gao%NULL%2, Hui%Long%NULL%0, Jian-ming%Wang%NULL%0, Hong-wei%Ren%NULL%2, Yi%Zuo%NULL%2, Huan%Li%NULL%0, Jie%Wang%NULL%2, Qing-bang%Xu%NULL%2, Wen-xiong%Yu%NULL%2, Jia%Liu%NULL%2, Chen%Shao%NULL%0, Jun-jie%Hao%NULL%2, Chuan-zhen%Wang%NULL%2, Yao%Ma%NULL%0, Zhanwei%Wang%NULL%2, Richard%Yanagihara%NULL%2, Youping%Deng%dengy@hawaii.edu%2]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Mao%Huang%NULL%0, Yi%Yang%NULL%0, Futai%Shang%NULL%0, Yishan%Zheng%NULL%0, Wenjing%Zhao%NULL%0, Liang%Luo%NULL%0, Xudong%Han%NULL%0, Aihua%Lin%NULL%0, Hongsheng%Zhao%NULL%0, Qing%Gu%NULL%0, Yi%Shi%NULL%0, Jun%Li%NULL%0, Xingxiang%Xu%NULL%0, Kexi%Liu%NULL%0, YiJun%Deng%NULL%0, Quan%Cao%NULL%0, Weiwei%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Southern Society for Clinical Investigation. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cardiac involvement in Coronavirus disease (COVID-19) is still under evaluation, especially in severe COVID-19-related Acute Respiratory Distress Syndrome (ARDS).
+ The cardiac involvement was assessed by serial troponin levels and echocardiograms in 28 consecutive patients with COVID-19 ARDS consecutively admitted to our Intensive Care Unit from March 1 to March 31. Twenty-eight COVID-19 patients (aged 61.7 ± 10 years, males 79%).
+ The majority was mechanically ventilated (86%) and 4 patients (14%) required veno-venous extracorporeal membrane oxygenation.
+ As of March 31, the Intensive Care Unit mortality rate was 7%, whereas 7 patients were discharged (25%) with a length of stay of 8.2 ±5 days.
+ At echocardiographic assessment on admission, acute core pulmonale was detected in 2 patients who required extracorporeal membrane oxygenation support.
+ Increased systolic arterial pressure was detected in all patients.
+ Increased Troponin T levels were detectable in 11 patients (39%) on admission.
+ At linear regression analysis, troponin T showed a direct relationship with C-reactive Protein (R square: 0.082, F: 5.95, p = 0.017).
+ In conclusions, in COVID-19-related ARDS, increased in Tn levels was common but not associated with alterations in wall motion kinesis, thus suggesting that troponin T elevation is likely to be multifactorial, mainly linked to disease severely (as inferred by the relation between Tn and C-reactive Protein).
+ The increase in systolic pulmonary arterial pressures observed in all patients may be related to hypoxic vasoconstriction.
+ Further studies are needed to confirm our findings in larger cohorts.
+</t>
+  </si>
+  <si>
+    <t>[Chiara%Lazzeri%NULL%0, Manuela%Bonizzoli%NULL%1, Stefano%Batacchi%NULL%1, Giovanni%Cianchi%NULL%1, Andrea%Franci%NULL%1, Giorgio Enzo%Fulceri%NULL%1, Adriano%Peris%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0, Jiangang%Jiang%NULL%0, Feng%Wang%NULL%0, Ning%Zhou%NULL%0, Giacomo%Veronese%NULL%2, Javid J.%Moslehi%NULL%0, Enrico%Ammirati%NULL%0, Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Patients with COVID-19 with elevated troponin have markedly increased risk of death.
+</t>
+  </si>
+  <si>
+    <t>[David T.%Majure%NULL%0, Luis%Gruberg%NULL%1, Shahryar G.%Saba%NULL%1, Charlotte%Kvasnovsky%NULL%1, Jamie S.%Hirsch%NULL%1, Rajiv%Jauhar%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0, Li-Rong%Liang%NULL%0, Cheng-Qing%Yang%NULL%0, Wen%Wang%NULL%0, Tan-Ze%Cao%NULL%0, Ming%Li%NULL%0, Guang-Yun%Guo%NULL%0, Juan%Du%NULL%0, Chun-Lan%Zheng%NULL%0, Qi%Zhu%NULL%0, Ming%Hu%NULL%0, Xu-Yan%Li%NULL%0, Peng%Peng%NULL%0, Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>European Respiratory Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited data are available on the clinical presentation and outcomes of coronavirus disease (COVID-19) patients in the United States hospitalized under normal-caseload or nonsurge conditions.
+ We retrospectively studied 72 consecutive adult patients hospitalized with COVID-19 in 2 hospitals in the San Francisco Bay area, California, USA, during March 13–April 11, 2020. The death rate for all hospitalized COVID-19 patients was 8.3%, and median length of hospitalization was 7.5 days.
+ Of the 21 (29% of total) intensive care unit patients, 3 (14.3% died); median length of intensive care unit stay was 12 days.
+ Of the 72 patients, 43 (59.7%) had underlying cardiovascular disease and 19 (26.4%) had underlying pulmonary disease.
+ In this study, death rates were lower than those reported from regions of the United States experiencing a high volume of COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0, Joelle I.%Rosser%NULL%2, Orlando%Quintero%NULL%2, Jake%Scott%NULL%2, Aruna%Subramanian%NULL%2, Mohammad%Gumma%NULL%2, Angela%Rogers%NULL%2, Shanthi%Kappagoda%NULL%2]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>[Caroline E%Franks%NULL%0, Mitchell G%Scott%mgscott@wustl.edu%1, Christopher W%Farnsworth%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael%Gottlieb%michaelgottliebmd@gmail.com%0, Sarah%Sansom%NULL%2, Sarah%Sansom%NULL%0, Casey%Frankenberger%NULL%1, Edward%Ward%NULL%1, Bala%Hota%NULL%1, Timothy%Jang%NULL%2, Timothy%Jang%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0, Justin J.%Choi%NULL%4, Laura C.%Pinheiro%NULL%4, Edward J.%Schenck%NULL%4, Ruijun%Chen%NULL%0, Assem%Jabri%NULL%4, Michael J.%Satlin%NULL%4, Thomas R.%Campion%NULL%4, Musarrat%Nahid%NULL%4, Joanna B.%Ringel%NULL%4, Katherine L.%Hoffman%NULL%4, Mark N.%Alshak%NULL%4, Han A.%Li%NULL%4, Graham T.%Wehmeyer%NULL%8, Graham T.%Wehmeyer%NULL%0, Mangala%Rajan%NULL%4, Evgeniya%Reshetnyak%NULL%4, Nathaniel%Hupert%NULL%4, Evelyn M.%Horn%NULL%4, Fernando J.%Martinez%NULL%4, Roy M.%Gulick%NULL%4, Monika M.%Safford%NULL%8, Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anjali%Bhatla%NULL%0, Michael M.%Mayer%NULL%1, Srinath%Adusumalli%NULL%1, Matthew C.%Hyman%NULL%1, Eric%Oh%NULL%1, Ann%Tierney%NULL%1, Juwann%Moss%NULL%1, Anwar A.%Chahal%NULL%1, George%Anesi%NULL%1, Srinivas%Denduluri%NULL%1, Christopher M.%Domenico%NULL%1, Jeffrey%Arkles%NULL%1, Benjamin S.%Abella%NULL%1, John R.%Bullinga%NULL%1, David J.%Callans%NULL%1, Sanjay%Dixit%NULL%1, Andrew E.%Epstein%NULL%1, David S.%Frankel%NULL%1, Fermin C.%Garcia%NULL%1, Ramanan%Kumareswaram%NULL%1, Saman%Nazarian%NULL%1, Michael P.%Riley%NULL%1, Pasquale%Santangeli%NULL%1, Robert D.%Schaller%NULL%1, Gregory E.%Supple%NULL%1, David%Lin%NULL%1, Francis%Marchlinski%NULL%1, Rajat%Deo%Rajat.Deo@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Inc. on behalf of Heart Rhythm Society.</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0, Bijan J.%Ghassemieh%NULL%0, Michelle%Nichols%NULL%0, Richard%Kim%NULL%0, Keith R.%Jerome%NULL%0, Arun K.%Nalla%NULL%0, Alexander L.%Greninger%NULL%0, Sudhakar%Pipavath%NULL%0, Mark M.%Wurfel%NULL%0, Laura%Evans%NULL%0, Patricia A.%Kritek%NULL%0, T. Eoin%West%NULL%0, Andrew%Luks%NULL%0, Anthony%Gerbino%NULL%0, Chris R.%Dale%NULL%0, Jason D.%Goldman%NULL%0, Shane%O’Mahony%NULL%0, Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0, Denise J%McCulloch%NULL%8, Denise J%McCulloch%NULL%0, Vidya%Atluri%NULL%4, Michela%Blain%NULL%4, Sarah A%McGuffin%NULL%4, Arun K%Nalla%NULL%4, Meei-Li%Huang%NULL%4, Alex L%Greninger%NULL%4, Keith R%Jerome%NULL%4, Seth A%Cohen%NULL%4, Santiago%Neme%NULL%0, Margaret L%Green%NULL%4, Helen Y%Chu%NULL%0, H Nina%Kim%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Luca%Arcari%luca_arcari@outlook.it%0, Michelangelo%Luciani%NULL%2, Michelangelo%Luciani%NULL%0, Luca%Cacciotti%NULL%1, Maria Beatrice%Musumeci%NULL%1, Valerio%Spuntarelli%NULL%1, Eleonora%Pistella%NULL%1, Dario%Martolini%NULL%1, Daniele%Manzo%NULL%1, Mariateresa%Pucci%NULL%1, Claudio%Marone%NULL%1, Serena%Melandri%NULL%1, Gerardo%Ansalone%NULL%1, Claudio%Santini%NULL%1, Paolo%Martelletti%NULL%1, Massimo%Volpe%NULL%1, Luciano%De Biase%NULL%1]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t>[Elie%Azoulay%elie.azoulay@aphp.fr%0, Muriel%Fartoukh%NULL%0, Muriel%Fartoukh%NULL%0, Michael%Darmon%NULL%0, Guillaume%Géri%NULL%0, Guillaume%Voiriot%NULL%0, Thibault%Dupont%NULL%1, Lara%Zafrani%NULL%1, Lola%Girodias%NULL%1, Vincent%Labbé%NULL%1, Martin%Dres%NULL%0, Alexandra%Beurton%NULL%0, Antoine%Vieillard-Baron%NULL%0, Alexandre%Demoule%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hasan Ali%Barman%NULL%0, Adem%Atici%NULL%1, Irfan%Sahin%NULL%1, Gokhan%Alici%NULL%1, Esra%Aktas Tekin%NULL%1, Ömer Faruk%Baycan%NULL%1, Fatih%Ozturk%NULL%1, Ersan%Oflar%NULL%1, Sevil%Tugrul%NULL%1, Mustafa baran%Yavuz%NULL%1, Fatma Betul%Celik%NULL%1, Aysu%Oktay%NULL%1, Haluk%Vahaboglu%NULL%1, Mine%Adas%NULL%1, Namigar%Turgut%NULL%1, Ertugrul%Okuyan%NULL%1, Mustafa Taner%Yildirmak%NULL%1, Baris%Gungor%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alberto%Cipriani%alberto.cipriani@unipd.it%0, Federico%Capone%NULL%2, Federico%Capone%NULL%0, Filippo%Donato%NULL%1, Leonardo%Molinari%NULL%1, Davide%Ceccato%NULL%1, Alois%Saller%NULL%1, Lorenzo%Previato%NULL%1, Raffaele%Pesavento%NULL%1, Cristiano%Sarais%NULL%1, Paola%Fioretto%NULL%2, Sabino%Iliceto%NULL%1, Dario%Gregori%NULL%1, Angelo%Avogaro%NULL%1, Roberto%Vettor%NULL%3]</t>
   </si>
 </sst>
 </file>
@@ -4130,7 +4534,7 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>1043</v>
+        <v>1137</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -4142,10 +4546,10 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="3">
@@ -4162,7 +4566,7 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>1044</v>
+        <v>1139</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
@@ -4174,10 +4578,10 @@
         <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="4">
@@ -4194,7 +4598,7 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>1045</v>
+        <v>1141</v>
       </c>
       <c r="F4" t="s">
         <v>62</v>
@@ -4206,10 +4610,10 @@
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="5">
@@ -4223,10 +4627,10 @@
         <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>1143</v>
       </c>
       <c r="E5" t="s">
-        <v>1046</v>
+        <v>1144</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -4238,10 +4642,10 @@
         <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>779</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="6">
@@ -4255,10 +4659,10 @@
         <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>1146</v>
       </c>
       <c r="E6" t="s">
-        <v>1047</v>
+        <v>1147</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -4270,10 +4674,10 @@
         <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>779</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="7">
@@ -4290,7 +4694,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>1048</v>
+        <v>1148</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -4302,10 +4706,10 @@
         <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>779</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="8">
@@ -4319,10 +4723,10 @@
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>1150</v>
       </c>
       <c r="E8" t="s">
-        <v>1049</v>
+        <v>1151</v>
       </c>
       <c r="F8" t="s">
         <v>79</v>
@@ -4334,10 +4738,10 @@
         <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="9">
@@ -4348,25 +4752,25 @@
         <v>44105.0</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
         <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>783</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
         <v>49</v>
@@ -4386,7 +4790,7 @@
         <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>1050</v>
+        <v>1153</v>
       </c>
       <c r="F10" t="s">
         <v>83</v>
@@ -4398,10 +4802,10 @@
         <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>785</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="11">
@@ -4418,7 +4822,7 @@
         <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>1051</v>
+        <v>1155</v>
       </c>
       <c r="F11" t="s">
         <v>87</v>
@@ -4430,10 +4834,10 @@
         <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="12">
@@ -4447,10 +4851,10 @@
         <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>539</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>1052</v>
+        <v>1157</v>
       </c>
       <c r="F12" t="s">
         <v>92</v>
@@ -4462,10 +4866,10 @@
         <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>785</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="13">
@@ -4479,10 +4883,10 @@
         <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>541</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>1053</v>
+        <v>1159</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -4494,10 +4898,10 @@
         <v>98</v>
       </c>
       <c r="I13" t="s">
-        <v>785</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="14">
@@ -4511,10 +4915,10 @@
         <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>543</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>1054</v>
+        <v>1161</v>
       </c>
       <c r="F14" t="s">
         <v>102</v>
@@ -4526,10 +4930,10 @@
         <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>785</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="15">
@@ -4546,7 +4950,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>1055</v>
+        <v>1162</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -4558,10 +4962,10 @@
         <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>779</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="16">
@@ -4578,7 +4982,7 @@
         <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>1056</v>
+        <v>1164</v>
       </c>
       <c r="F16" t="s">
         <v>111</v>
@@ -4590,10 +4994,10 @@
         <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>779</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="17">
@@ -4610,7 +5014,7 @@
         <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>1057</v>
+        <v>1165</v>
       </c>
       <c r="F17" t="s">
         <v>116</v>
@@ -4622,10 +5026,10 @@
         <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="18">
@@ -4642,7 +5046,7 @@
         <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>1058</v>
+        <v>1167</v>
       </c>
       <c r="F18" t="s">
         <v>120</v>
@@ -4654,10 +5058,10 @@
         <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>779</v>
+        <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="19">
@@ -4671,10 +5075,10 @@
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>1169</v>
       </c>
       <c r="E19" t="s">
-        <v>1059</v>
+        <v>1170</v>
       </c>
       <c r="F19" t="s">
         <v>125</v>
@@ -4686,10 +5090,10 @@
         <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>779</v>
+        <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="20">
@@ -4706,7 +5110,7 @@
         <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>1060</v>
+        <v>1171</v>
       </c>
       <c r="F20" t="s">
         <v>129</v>
@@ -4718,10 +5122,10 @@
         <v>130</v>
       </c>
       <c r="I20" t="s">
-        <v>779</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="21">
@@ -4732,28 +5136,28 @@
         <v>2020.0</v>
       </c>
       <c r="C21" t="s">
-        <v>406</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>622</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>408</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>409</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
         <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>866</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
@@ -4767,10 +5171,10 @@
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>1173</v>
       </c>
       <c r="E22" t="s">
-        <v>1061</v>
+        <v>1174</v>
       </c>
       <c r="F22" t="s">
         <v>134</v>
@@ -4782,10 +5186,10 @@
         <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>779</v>
+        <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="23">
@@ -4802,7 +5206,7 @@
         <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>1062</v>
+        <v>1175</v>
       </c>
       <c r="F23" t="s">
         <v>138</v>
@@ -4814,10 +5218,10 @@
         <v>139</v>
       </c>
       <c r="I23" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="24">
@@ -4831,10 +5235,10 @@
         <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>1177</v>
       </c>
       <c r="E24" t="s">
-        <v>1063</v>
+        <v>1178</v>
       </c>
       <c r="F24" t="s">
         <v>143</v>
@@ -4846,10 +5250,10 @@
         <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="25">
@@ -4866,7 +5270,7 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>1064</v>
+        <v>1180</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -4878,10 +5282,10 @@
         <v>147</v>
       </c>
       <c r="I25" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="26">
@@ -4898,7 +5302,7 @@
         <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>1065</v>
+        <v>1181</v>
       </c>
       <c r="F26" t="s">
         <v>151</v>
@@ -4910,10 +5314,10 @@
         <v>152</v>
       </c>
       <c r="I26" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="27">
@@ -4930,7 +5334,7 @@
         <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>1066</v>
+        <v>1183</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -4942,10 +5346,10 @@
         <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="28">
@@ -4962,7 +5366,7 @@
         <v>157</v>
       </c>
       <c r="E28" t="s">
-        <v>1067</v>
+        <v>1184</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -4974,10 +5378,10 @@
         <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>779</v>
+        <v>49</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="29">
@@ -4994,7 +5398,7 @@
         <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>1068</v>
+        <v>1186</v>
       </c>
       <c r="F29" t="s">
         <v>163</v>
@@ -5006,10 +5410,10 @@
         <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="30">
@@ -5026,7 +5430,7 @@
         <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>1069</v>
+        <v>1187</v>
       </c>
       <c r="F30" t="s">
         <v>167</v>
@@ -5038,10 +5442,10 @@
         <v>168</v>
       </c>
       <c r="I30" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="31">
@@ -5055,10 +5459,10 @@
         <v>169</v>
       </c>
       <c r="D31" t="s">
-        <v>561</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>1070</v>
+        <v>1188</v>
       </c>
       <c r="F31" t="s">
         <v>172</v>
@@ -5070,10 +5474,10 @@
         <v>173</v>
       </c>
       <c r="I31" t="s">
-        <v>785</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="32">
@@ -5087,10 +5491,10 @@
         <v>174</v>
       </c>
       <c r="D32" t="s">
-        <v>563</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s">
-        <v>1071</v>
+        <v>1190</v>
       </c>
       <c r="F32" t="s">
         <v>177</v>
@@ -5102,10 +5506,10 @@
         <v>178</v>
       </c>
       <c r="I32" t="s">
-        <v>785</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="33">
@@ -5122,7 +5526,7 @@
         <v>180</v>
       </c>
       <c r="E33" t="s">
-        <v>1072</v>
+        <v>1191</v>
       </c>
       <c r="F33" t="s">
         <v>182</v>
@@ -5134,10 +5538,10 @@
         <v>53</v>
       </c>
       <c r="I33" t="s">
-        <v>775</v>
+        <v>49</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="34">
@@ -5151,10 +5555,10 @@
         <v>183</v>
       </c>
       <c r="D34" t="s">
-        <v>566</v>
+        <v>184</v>
       </c>
       <c r="E34" t="s">
-        <v>1073</v>
+        <v>1192</v>
       </c>
       <c r="F34" t="s">
         <v>186</v>
@@ -5166,10 +5570,10 @@
         <v>187</v>
       </c>
       <c r="I34" t="s">
-        <v>785</v>
+        <v>49</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="35">
@@ -5180,25 +5584,25 @@
         <v>44228.0</v>
       </c>
       <c r="C35" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>1074</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
         <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>783</v>
+        <v>49</v>
       </c>
       <c r="J35" t="s">
         <v>49</v>
@@ -5212,28 +5616,28 @@
         <v>44187.0</v>
       </c>
       <c r="C36" t="s">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>425</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>637</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>408</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>427</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s">
         <v>49</v>
       </c>
       <c r="J36" t="s">
-        <v>882</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
